--- a/myapp/files/9_MethodComparePercent/Scenario 317.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 317.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>884</v>
+        <v>11233</v>
       </c>
       <c r="F2" t="n">
-        <v>0.980479148181012</v>
+        <v>2.15326872057538</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.92307692307692</v>
+        <v>1.59362549800797</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8265</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.58432885031207</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.19521912350598</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8012</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.53583094358141</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>9678</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.85518870094619</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5538</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.06158659080802</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7188</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.37787728687758</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.19521912350598</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>7254</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.39052891472036</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8365</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.6034979834072</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>10761</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.06279041236639</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.39043824701195</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8114</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.55538345933843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.19521912350598</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>559</v>
+        <v>684</v>
       </c>
       <c r="F12" t="n">
-        <v>0.620008873114463</v>
+        <v>0.131116870370654</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.92307692307692</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>858</v>
+        <v>13749</v>
       </c>
       <c r="F13" t="n">
-        <v>0.951641526175688</v>
+        <v>2.63556410924872</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.92307692307692</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>7480</v>
+        <v>36250</v>
       </c>
       <c r="F14" t="n">
-        <v>8.2963620230701</v>
+        <v>6.94881074698278</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1049,10 +1049,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>5.76923076923077</v>
+        <v>5.57768924302789</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>1696</v>
+        <v>41434</v>
       </c>
       <c r="F15" t="n">
-        <v>1.88110026619343</v>
+        <v>7.94253860663405</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
         <v>6.06060606060606</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>3.84615384615385</v>
+        <v>7.96812749003984</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>24135</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.6264702725084</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.00575073992853747</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10209</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.9569767976813</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>4514</v>
+        <v>36942</v>
       </c>
       <c r="F19" t="n">
-        <v>5.00665483584738</v>
+        <v>7.08146114800104</v>
       </c>
       <c r="G19" t="n">
         <v>8</v>
@@ -1239,10 +1239,10 @@
         <v>12.1212121212121</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>5.76923076923077</v>
+        <v>7.17131474103586</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>8570</v>
+        <v>64146</v>
       </c>
       <c r="F20" t="n">
-        <v>9.50532386867791</v>
+        <v>12.2962321151988</v>
       </c>
       <c r="G20" t="n">
         <v>21</v>
@@ -1277,16 +1277,16 @@
         <v>31.8181818181818</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>9.61538461538461</v>
+        <v>15.1394422310757</v>
       </c>
       <c r="K20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
-        <v>19.6969696969697</v>
+        <v>18.1818181818182</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>324</v>
+        <v>37454</v>
       </c>
       <c r="F21" t="n">
-        <v>0.359361135758651</v>
+        <v>7.17960710944808</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
@@ -1315,16 +1315,16 @@
         <v>10.6060606060606</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J21" t="n">
-        <v>1.92307692307692</v>
+        <v>10.3585657370518</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>4.54545454545454</v>
+        <v>6.06060606060606</v>
       </c>
     </row>
     <row r="22">
@@ -1344,7 +1344,7 @@
         <v>2652</v>
       </c>
       <c r="F22" t="n">
-        <v>2.94143744454303</v>
+        <v>0.508365409682712</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.92307692307692</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>4131</v>
+        <v>8131</v>
       </c>
       <c r="F23" t="n">
-        <v>4.5818544809228</v>
+        <v>1.55864221196461</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.92307692307692</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>15237</v>
+        <v>24384</v>
       </c>
       <c r="F24" t="n">
-        <v>16.8999556344277</v>
+        <v>4.67420141391526</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1429,10 +1429,10 @@
         <v>4.54545454545454</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>13.4615384615385</v>
+        <v>5.1792828685259</v>
       </c>
       <c r="K24" t="n">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>19586</v>
+        <v>55458</v>
       </c>
       <c r="F25" t="n">
-        <v>21.723602484472</v>
+        <v>10.6308178318944</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1467,10 +1467,10 @@
         <v>9.09090909090909</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J25" t="n">
-        <v>25</v>
+        <v>11.9521912350598</v>
       </c>
       <c r="K25" t="n">
         <v>6</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>23669</v>
+        <v>81606</v>
       </c>
       <c r="F26" t="n">
-        <v>26.2522182786158</v>
+        <v>15.6431627536076</v>
       </c>
       <c r="G26" t="n">
         <v>10</v>
@@ -1505,16 +1505,16 @@
         <v>15.1515151515152</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J26" t="n">
-        <v>25</v>
+        <v>11.9521912350598</v>
       </c>
       <c r="K26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" t="n">
-        <v>27.2727272727273</v>
+        <v>25.7575757575758</v>
       </c>
     </row>
   </sheetData>
